--- a/biology/Botanique/Esprit_de_Cognac/Esprit_de_Cognac.xlsx
+++ b/biology/Botanique/Esprit_de_Cognac/Esprit_de_Cognac.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Esprit de Cognac est un alcool français obtenu par une troisième distillation du cognac, titrant entre 80 et 85°, et destiné exclusivement à l'élaboration de vins mousseux. Il bénéficie d'une appellation d'origine contrôlée depuis 1938[1].
-Il est notamment utilisé comme support alcoolique de la liqueur de dosage (ou liqueur d’expédition) de certains Champagnes[2].
-Cette appellation couvre la même zone géographique que le cognac, c'est-à-dire la presque totalité du département de la Charente-Maritime, une très grande partie du département de la Charente et quelques communes voisines des Deux-Sèvres et de la Dordogne[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Esprit de Cognac est un alcool français obtenu par une troisième distillation du cognac, titrant entre 80 et 85°, et destiné exclusivement à l'élaboration de vins mousseux. Il bénéficie d'une appellation d'origine contrôlée depuis 1938.
+Il est notamment utilisé comme support alcoolique de la liqueur de dosage (ou liqueur d’expédition) de certains Champagnes.
+Cette appellation couvre la même zone géographique que le cognac, c'est-à-dire la presque totalité du département de la Charente-Maritime, une très grande partie du département de la Charente et quelques communes voisines des Deux-Sèvres et de la Dordogne.
 </t>
         </is>
       </c>
